--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,362 +537,2222 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H2">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I2">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J2">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.152241871482875</v>
+        <v>0.169711</v>
       </c>
       <c r="N2">
-        <v>0.152241871482875</v>
+        <v>0.5091330000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.169026555136069</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.169026555136069</v>
       </c>
       <c r="Q2">
-        <v>10.90436246247086</v>
+        <v>14.677369621812</v>
       </c>
       <c r="R2">
-        <v>10.90436246247086</v>
+        <v>132.096326596308</v>
       </c>
       <c r="S2">
-        <v>0.1058613987222859</v>
+        <v>0.0191649419874334</v>
       </c>
       <c r="T2">
-        <v>0.1058613987222859</v>
+        <v>0.0191649419874334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.343810879635</v>
+        <v>86.484492</v>
       </c>
       <c r="H3">
-        <v>156.343810879635</v>
+        <v>259.453476</v>
       </c>
       <c r="I3">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J3">
-        <v>0.2310745715982548</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.152241871482875</v>
+        <v>0.4463863333333333</v>
       </c>
       <c r="N3">
-        <v>0.152241871482875</v>
+        <v>1.339159</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.4445860561964419</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.4445860561964419</v>
       </c>
       <c r="Q3">
-        <v>23.8020743630803</v>
+        <v>38.605495274076</v>
       </c>
       <c r="R3">
-        <v>23.8020743630803</v>
+        <v>347.449457466684</v>
       </c>
       <c r="S3">
-        <v>0.2310745715982548</v>
+        <v>0.0504090376128621</v>
       </c>
       <c r="T3">
-        <v>0.2310745715982548</v>
+        <v>0.05040903761286211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>105.826997092114</v>
+        <v>86.484492</v>
       </c>
       <c r="H4">
-        <v>105.826997092114</v>
+        <v>259.453476</v>
       </c>
       <c r="I4">
-        <v>0.1564112316247455</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J4">
-        <v>0.1564112316247455</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.152241871482875</v>
+        <v>0.1427086666666667</v>
       </c>
       <c r="N4">
-        <v>0.152241871482875</v>
+        <v>0.428126</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1421331222768602</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1421331222768603</v>
       </c>
       <c r="Q4">
-        <v>16.11130009071621</v>
+        <v>12.342086540664</v>
       </c>
       <c r="R4">
-        <v>16.11130009071621</v>
+        <v>111.078778865976</v>
       </c>
       <c r="S4">
-        <v>0.1564112316247455</v>
+        <v>0.01611565141782581</v>
       </c>
       <c r="T4">
-        <v>0.1564112316247455</v>
+        <v>0.01611565141782582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.868583664288</v>
+        <v>86.484492</v>
       </c>
       <c r="H5">
-        <v>103.868583664288</v>
+        <v>259.453476</v>
       </c>
       <c r="I5">
-        <v>0.1535167163810589</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J5">
-        <v>0.1535167163810589</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.152241871482875</v>
+        <v>0.1049366666666667</v>
       </c>
       <c r="N5">
-        <v>0.152241871482875</v>
+        <v>0.31481</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.1045134568420941</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.1045134568420941</v>
       </c>
       <c r="Q5">
-        <v>15.81314756532678</v>
+        <v>9.07539430884</v>
       </c>
       <c r="R5">
-        <v>15.81314756532678</v>
+        <v>81.67854877956</v>
       </c>
       <c r="S5">
-        <v>0.1535167163810589</v>
+        <v>0.01185017546901086</v>
       </c>
       <c r="T5">
-        <v>0.1535167163810589</v>
+        <v>0.01185017546901087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.2138542608639</v>
+        <v>86.484492</v>
       </c>
       <c r="H6">
-        <v>36.2138542608639</v>
+        <v>259.453476</v>
       </c>
       <c r="I6">
-        <v>0.05352371041852844</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J6">
-        <v>0.05352371041852844</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.152241871482875</v>
+        <v>0.01359466666666667</v>
       </c>
       <c r="N6">
-        <v>0.152241871482875</v>
+        <v>0.040784</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.0135398393438835</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.0135398393438835</v>
       </c>
       <c r="Q6">
-        <v>5.513264946282006</v>
+        <v>1.175727840576</v>
       </c>
       <c r="R6">
-        <v>5.513264946282006</v>
+        <v>10.581550565184</v>
       </c>
       <c r="S6">
-        <v>0.05352371041852844</v>
+        <v>0.001535203952632188</v>
       </c>
       <c r="T6">
-        <v>0.05352371041852844</v>
+        <v>0.001535203952632188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>86.484492</v>
+      </c>
+      <c r="H7">
+        <v>259.453476</v>
+      </c>
+      <c r="I7">
+        <v>0.1133842074223504</v>
+      </c>
+      <c r="J7">
+        <v>0.1133842074223504</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.126712</v>
+      </c>
+      <c r="N7">
+        <v>0.380136</v>
+      </c>
+      <c r="O7">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="P7">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="Q7">
+        <v>10.958622950304</v>
+      </c>
+      <c r="R7">
+        <v>98.627606552736</v>
+      </c>
+      <c r="S7">
+        <v>0.01430919698258605</v>
+      </c>
+      <c r="T7">
+        <v>0.01430919698258605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>202.716117073023</v>
-      </c>
-      <c r="H7">
-        <v>202.716117073023</v>
-      </c>
-      <c r="I7">
-        <v>0.2996123712551263</v>
-      </c>
-      <c r="J7">
-        <v>0.2996123712551263</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.152241871482875</v>
-      </c>
-      <c r="N7">
-        <v>0.152241871482875</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>30.86188104293861</v>
-      </c>
-      <c r="R7">
-        <v>30.86188104293861</v>
-      </c>
-      <c r="S7">
-        <v>0.2996123712551263</v>
-      </c>
-      <c r="T7">
-        <v>0.2996123712551263</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>157.8540903333333</v>
+      </c>
+      <c r="H8">
+        <v>473.562271</v>
+      </c>
+      <c r="I8">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="J8">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.169711</v>
+      </c>
+      <c r="N8">
+        <v>0.5091330000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.169026555136069</v>
+      </c>
+      <c r="P8">
+        <v>0.169026555136069</v>
+      </c>
+      <c r="Q8">
+        <v>26.78957552456034</v>
+      </c>
+      <c r="R8">
+        <v>241.106179721043</v>
+      </c>
+      <c r="S8">
+        <v>0.03498042728536123</v>
+      </c>
+      <c r="T8">
+        <v>0.03498042728536123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>157.8540903333333</v>
+      </c>
+      <c r="H9">
+        <v>473.562271</v>
+      </c>
+      <c r="I9">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="J9">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4463863333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.339159</v>
+      </c>
+      <c r="O9">
+        <v>0.4445860561964419</v>
+      </c>
+      <c r="P9">
+        <v>0.4445860561964419</v>
+      </c>
+      <c r="Q9">
+        <v>70.46390858556545</v>
+      </c>
+      <c r="R9">
+        <v>634.175177270089</v>
+      </c>
+      <c r="S9">
+        <v>0.09200808830509326</v>
+      </c>
+      <c r="T9">
+        <v>0.09200808830509327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>157.8540903333333</v>
+      </c>
+      <c r="H10">
+        <v>473.562271</v>
+      </c>
+      <c r="I10">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="J10">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1427086666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.428126</v>
+      </c>
+      <c r="O10">
+        <v>0.1421331222768602</v>
+      </c>
+      <c r="P10">
+        <v>0.1421331222768603</v>
+      </c>
+      <c r="Q10">
+        <v>22.52714675934956</v>
+      </c>
+      <c r="R10">
+        <v>202.744320834146</v>
+      </c>
+      <c r="S10">
+        <v>0.02941477062373203</v>
+      </c>
+      <c r="T10">
+        <v>0.02941477062373203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>157.8540903333333</v>
+      </c>
+      <c r="H11">
+        <v>473.562271</v>
+      </c>
+      <c r="I11">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="J11">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1049366666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.31481</v>
+      </c>
+      <c r="O11">
+        <v>0.1045134568420941</v>
+      </c>
+      <c r="P11">
+        <v>0.1045134568420941</v>
+      </c>
+      <c r="Q11">
+        <v>16.56468205927889</v>
+      </c>
+      <c r="R11">
+        <v>149.08213853351</v>
+      </c>
+      <c r="S11">
+        <v>0.02162929590834726</v>
+      </c>
+      <c r="T11">
+        <v>0.02162929590834727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>157.8540903333333</v>
+      </c>
+      <c r="H12">
+        <v>473.562271</v>
+      </c>
+      <c r="I12">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="J12">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01359466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.040784</v>
+      </c>
+      <c r="O12">
+        <v>0.0135398393438835</v>
+      </c>
+      <c r="P12">
+        <v>0.0135398393438835</v>
+      </c>
+      <c r="Q12">
+        <v>2.145973740051556</v>
+      </c>
+      <c r="R12">
+        <v>19.313763660464</v>
+      </c>
+      <c r="S12">
+        <v>0.00280210032821713</v>
+      </c>
+      <c r="T12">
+        <v>0.002802100328217131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>157.8540903333333</v>
+      </c>
+      <c r="H13">
+        <v>473.562271</v>
+      </c>
+      <c r="I13">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="J13">
+        <v>0.206952258224759</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.126712</v>
+      </c>
+      <c r="N13">
+        <v>0.380136</v>
+      </c>
+      <c r="O13">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="P13">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="Q13">
+        <v>20.00200749431733</v>
+      </c>
+      <c r="R13">
+        <v>180.018067448856</v>
+      </c>
+      <c r="S13">
+        <v>0.02611757577400811</v>
+      </c>
+      <c r="T13">
+        <v>0.02611757577400812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>107.1200406666667</v>
+      </c>
+      <c r="H14">
+        <v>321.360122</v>
+      </c>
+      <c r="I14">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="J14">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.169711</v>
+      </c>
+      <c r="N14">
+        <v>0.5091330000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.169026555136069</v>
+      </c>
+      <c r="P14">
+        <v>0.169026555136069</v>
+      </c>
+      <c r="Q14">
+        <v>18.17944922158067</v>
+      </c>
+      <c r="R14">
+        <v>163.615042994226</v>
+      </c>
+      <c r="S14">
+        <v>0.02373777445635194</v>
+      </c>
+      <c r="T14">
+        <v>0.02373777445635194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>107.1200406666667</v>
+      </c>
+      <c r="H15">
+        <v>321.360122</v>
+      </c>
+      <c r="I15">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="J15">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.4463863333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.339159</v>
+      </c>
+      <c r="O15">
+        <v>0.4445860561964419</v>
+      </c>
+      <c r="P15">
+        <v>0.4445860561964419</v>
+      </c>
+      <c r="Q15">
+        <v>47.81692217971089</v>
+      </c>
+      <c r="R15">
+        <v>430.352299617398</v>
+      </c>
+      <c r="S15">
+        <v>0.06243683733561524</v>
+      </c>
+      <c r="T15">
+        <v>0.06243683733561525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>107.1200406666667</v>
+      </c>
+      <c r="H16">
+        <v>321.360122</v>
+      </c>
+      <c r="I16">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="J16">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1427086666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.428126</v>
+      </c>
+      <c r="O16">
+        <v>0.1421331222768602</v>
+      </c>
+      <c r="P16">
+        <v>0.1421331222768603</v>
+      </c>
+      <c r="Q16">
+        <v>15.28695817681911</v>
+      </c>
+      <c r="R16">
+        <v>137.582623591372</v>
+      </c>
+      <c r="S16">
+        <v>0.01996091085610268</v>
+      </c>
+      <c r="T16">
+        <v>0.01996091085610269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>107.1200406666667</v>
+      </c>
+      <c r="H17">
+        <v>321.360122</v>
+      </c>
+      <c r="I17">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="J17">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1049366666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.31481</v>
+      </c>
+      <c r="O17">
+        <v>0.1045134568420941</v>
+      </c>
+      <c r="P17">
+        <v>0.1045134568420941</v>
+      </c>
+      <c r="Q17">
+        <v>11.24082000075778</v>
+      </c>
+      <c r="R17">
+        <v>101.16738000682</v>
+      </c>
+      <c r="S17">
+        <v>0.01467767513911719</v>
+      </c>
+      <c r="T17">
+        <v>0.01467767513911719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>107.1200406666667</v>
+      </c>
+      <c r="H18">
+        <v>321.360122</v>
+      </c>
+      <c r="I18">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="J18">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01359466666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.040784</v>
+      </c>
+      <c r="O18">
+        <v>0.0135398393438835</v>
+      </c>
+      <c r="P18">
+        <v>0.0135398393438835</v>
+      </c>
+      <c r="Q18">
+        <v>1.456261246183111</v>
+      </c>
+      <c r="R18">
+        <v>13.106351215648</v>
+      </c>
+      <c r="S18">
+        <v>0.00190150980869018</v>
+      </c>
+      <c r="T18">
+        <v>0.00190150980869018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>107.1200406666667</v>
+      </c>
+      <c r="H19">
+        <v>321.360122</v>
+      </c>
+      <c r="I19">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="J19">
+        <v>0.1404381367013169</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.126712</v>
+      </c>
+      <c r="N19">
+        <v>0.380136</v>
+      </c>
+      <c r="O19">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="P19">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="Q19">
+        <v>13.57339459295467</v>
+      </c>
+      <c r="R19">
+        <v>122.160551336592</v>
+      </c>
+      <c r="S19">
+        <v>0.01772342910543964</v>
+      </c>
+      <c r="T19">
+        <v>0.01772342910543964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H20">
+        <v>312.609107</v>
+      </c>
+      <c r="I20">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J20">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.169711</v>
+      </c>
+      <c r="N20">
+        <v>0.5091330000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.169026555136069</v>
+      </c>
+      <c r="P20">
+        <v>0.169026555136069</v>
+      </c>
+      <c r="Q20">
+        <v>17.68440138602567</v>
+      </c>
+      <c r="R20">
+        <v>159.159612474231</v>
+      </c>
+      <c r="S20">
+        <v>0.02309136687148628</v>
+      </c>
+      <c r="T20">
+        <v>0.02309136687148628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H21">
+        <v>312.609107</v>
+      </c>
+      <c r="I21">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J21">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.4463863333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.339159</v>
+      </c>
+      <c r="O21">
+        <v>0.4445860561964419</v>
+      </c>
+      <c r="P21">
+        <v>0.4445860561964419</v>
+      </c>
+      <c r="Q21">
+        <v>46.51481101344589</v>
+      </c>
+      <c r="R21">
+        <v>418.633299121013</v>
+      </c>
+      <c r="S21">
+        <v>0.06073660864303176</v>
+      </c>
+      <c r="T21">
+        <v>0.06073660864303177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H22">
+        <v>312.609107</v>
+      </c>
+      <c r="I22">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J22">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1427086666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.428126</v>
+      </c>
+      <c r="O22">
+        <v>0.1421331222768602</v>
+      </c>
+      <c r="P22">
+        <v>0.1421331222768603</v>
+      </c>
+      <c r="Q22">
+        <v>14.87067628260911</v>
+      </c>
+      <c r="R22">
+        <v>133.836086543482</v>
+      </c>
+      <c r="S22">
+        <v>0.01941735171992767</v>
+      </c>
+      <c r="T22">
+        <v>0.01941735171992767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H23">
+        <v>312.609107</v>
+      </c>
+      <c r="I23">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J23">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1049366666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.31481</v>
+      </c>
+      <c r="O23">
+        <v>0.1045134568420941</v>
+      </c>
+      <c r="P23">
+        <v>0.1045134568420941</v>
+      </c>
+      <c r="Q23">
+        <v>10.93471921940778</v>
+      </c>
+      <c r="R23">
+        <v>98.41247297467</v>
+      </c>
+      <c r="S23">
+        <v>0.01427798474035781</v>
+      </c>
+      <c r="T23">
+        <v>0.01427798474035782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H24">
+        <v>312.609107</v>
+      </c>
+      <c r="I24">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J24">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01359466666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.040784</v>
+      </c>
+      <c r="O24">
+        <v>0.0135398393438835</v>
+      </c>
+      <c r="P24">
+        <v>0.0135398393438835</v>
+      </c>
+      <c r="Q24">
+        <v>1.416605535543111</v>
+      </c>
+      <c r="R24">
+        <v>12.749449819888</v>
+      </c>
+      <c r="S24">
+        <v>0.001849729454752876</v>
+      </c>
+      <c r="T24">
+        <v>0.001849729454752877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>104.2030356666667</v>
+      </c>
+      <c r="H25">
+        <v>312.609107</v>
+      </c>
+      <c r="I25">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="J25">
+        <v>0.1366138406648433</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.126712</v>
+      </c>
+      <c r="N25">
+        <v>0.380136</v>
+      </c>
+      <c r="O25">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="P25">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="Q25">
+        <v>13.20377505539467</v>
+      </c>
+      <c r="R25">
+        <v>118.833975498552</v>
+      </c>
+      <c r="S25">
+        <v>0.01724079923528686</v>
+      </c>
+      <c r="T25">
+        <v>0.01724079923528686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H26">
+        <v>109.785373</v>
+      </c>
+      <c r="I26">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J26">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.169711</v>
+      </c>
+      <c r="N26">
+        <v>0.5091330000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.169026555136069</v>
+      </c>
+      <c r="P26">
+        <v>0.169026555136069</v>
+      </c>
+      <c r="Q26">
+        <v>6.210595145734334</v>
+      </c>
+      <c r="R26">
+        <v>55.895356311609</v>
+      </c>
+      <c r="S26">
+        <v>0.00810947048022489</v>
+      </c>
+      <c r="T26">
+        <v>0.008109470480224892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H27">
+        <v>109.785373</v>
+      </c>
+      <c r="I27">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J27">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.4463863333333333</v>
+      </c>
+      <c r="N27">
+        <v>1.339159</v>
+      </c>
+      <c r="O27">
+        <v>0.4445860561964419</v>
+      </c>
+      <c r="P27">
+        <v>0.4445860561964419</v>
+      </c>
+      <c r="Q27">
+        <v>16.33556336903411</v>
+      </c>
+      <c r="R27">
+        <v>147.020070321307</v>
+      </c>
+      <c r="S27">
+        <v>0.02133012469988683</v>
+      </c>
+      <c r="T27">
+        <v>0.02133012469988683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H28">
+        <v>109.785373</v>
+      </c>
+      <c r="I28">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J28">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1427086666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.428126</v>
+      </c>
+      <c r="O28">
+        <v>0.1421331222768602</v>
+      </c>
+      <c r="P28">
+        <v>0.1421331222768603</v>
+      </c>
+      <c r="Q28">
+        <v>5.222441400110889</v>
+      </c>
+      <c r="R28">
+        <v>47.00197260099799</v>
+      </c>
+      <c r="S28">
+        <v>0.006819190975279074</v>
+      </c>
+      <c r="T28">
+        <v>0.006819190975279076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H29">
+        <v>109.785373</v>
+      </c>
+      <c r="I29">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J29">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1049366666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.31481</v>
+      </c>
+      <c r="O29">
+        <v>0.1045134568420941</v>
+      </c>
+      <c r="P29">
+        <v>0.1045134568420941</v>
+      </c>
+      <c r="Q29">
+        <v>3.840170363792222</v>
+      </c>
+      <c r="R29">
+        <v>34.56153327412999</v>
+      </c>
+      <c r="S29">
+        <v>0.005014293714765292</v>
+      </c>
+      <c r="T29">
+        <v>0.005014293714765292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H30">
+        <v>109.785373</v>
+      </c>
+      <c r="I30">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J30">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.01359466666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.040784</v>
+      </c>
+      <c r="O30">
+        <v>0.0135398393438835</v>
+      </c>
+      <c r="P30">
+        <v>0.0135398393438835</v>
+      </c>
+      <c r="Q30">
+        <v>0.4974985169368888</v>
+      </c>
+      <c r="R30">
+        <v>4.477486652432</v>
+      </c>
+      <c r="S30">
+        <v>0.0006496075565038837</v>
+      </c>
+      <c r="T30">
+        <v>0.000649607556503884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>36.59512433333333</v>
+      </c>
+      <c r="H31">
+        <v>109.785373</v>
+      </c>
+      <c r="I31">
+        <v>0.04797749367663938</v>
+      </c>
+      <c r="J31">
+        <v>0.04797749367663939</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.126712</v>
+      </c>
+      <c r="N31">
+        <v>0.380136</v>
+      </c>
+      <c r="O31">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="P31">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="Q31">
+        <v>4.637041394525332</v>
+      </c>
+      <c r="R31">
+        <v>41.73337255072799</v>
+      </c>
+      <c r="S31">
+        <v>0.006054806249979412</v>
+      </c>
+      <c r="T31">
+        <v>0.006054806249979413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>270.499283</v>
+      </c>
+      <c r="H32">
+        <v>811.497849</v>
+      </c>
+      <c r="I32">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J32">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.169711</v>
+      </c>
+      <c r="N32">
+        <v>0.5091330000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.169026555136069</v>
+      </c>
+      <c r="P32">
+        <v>0.169026555136069</v>
+      </c>
+      <c r="Q32">
+        <v>45.90670381721301</v>
+      </c>
+      <c r="R32">
+        <v>413.160334354917</v>
+      </c>
+      <c r="S32">
+        <v>0.05994257405521131</v>
+      </c>
+      <c r="T32">
+        <v>0.05994257405521131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>270.499283</v>
+      </c>
+      <c r="H33">
+        <v>811.497849</v>
+      </c>
+      <c r="I33">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J33">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.4463863333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.339159</v>
+      </c>
+      <c r="O33">
+        <v>0.4445860561964419</v>
+      </c>
+      <c r="P33">
+        <v>0.4445860561964419</v>
+      </c>
+      <c r="Q33">
+        <v>120.7471831076657</v>
+      </c>
+      <c r="R33">
+        <v>1086.724647968991</v>
+      </c>
+      <c r="S33">
+        <v>0.1576653595999527</v>
+      </c>
+      <c r="T33">
+        <v>0.1576653595999527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>270.499283</v>
+      </c>
+      <c r="H34">
+        <v>811.497849</v>
+      </c>
+      <c r="I34">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J34">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1427086666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.428126</v>
+      </c>
+      <c r="O34">
+        <v>0.1421331222768602</v>
+      </c>
+      <c r="P34">
+        <v>0.1421331222768603</v>
+      </c>
+      <c r="Q34">
+        <v>38.60259201121934</v>
+      </c>
+      <c r="R34">
+        <v>347.423328100974</v>
+      </c>
+      <c r="S34">
+        <v>0.05040524668399297</v>
+      </c>
+      <c r="T34">
+        <v>0.05040524668399298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>270.499283</v>
+      </c>
+      <c r="H35">
+        <v>811.497849</v>
+      </c>
+      <c r="I35">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J35">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.1049366666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.31481</v>
+      </c>
+      <c r="O35">
+        <v>0.1045134568420941</v>
+      </c>
+      <c r="P35">
+        <v>0.1045134568420941</v>
+      </c>
+      <c r="Q35">
+        <v>28.38529309374333</v>
+      </c>
+      <c r="R35">
+        <v>255.46763784369</v>
+      </c>
+      <c r="S35">
+        <v>0.03706403187049566</v>
+      </c>
+      <c r="T35">
+        <v>0.03706403187049567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>270.499283</v>
+      </c>
+      <c r="H36">
+        <v>811.497849</v>
+      </c>
+      <c r="I36">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J36">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.01359466666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.040784</v>
+      </c>
+      <c r="O36">
+        <v>0.0135398393438835</v>
+      </c>
+      <c r="P36">
+        <v>0.0135398393438835</v>
+      </c>
+      <c r="Q36">
+        <v>3.677347585957333</v>
+      </c>
+      <c r="R36">
+        <v>33.096128273616</v>
+      </c>
+      <c r="S36">
+        <v>0.004801688243087243</v>
+      </c>
+      <c r="T36">
+        <v>0.004801688243087245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>270.499283</v>
+      </c>
+      <c r="H37">
+        <v>811.497849</v>
+      </c>
+      <c r="I37">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="J37">
+        <v>0.3546340633100911</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.126712</v>
+      </c>
+      <c r="N37">
+        <v>0.380136</v>
+      </c>
+      <c r="O37">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="P37">
+        <v>0.1262009702046513</v>
+      </c>
+      <c r="Q37">
+        <v>34.275505147496</v>
+      </c>
+      <c r="R37">
+        <v>308.479546327464</v>
+      </c>
+      <c r="S37">
+        <v>0.04475516285735122</v>
+      </c>
+      <c r="T37">
+        <v>0.04475516285735123</v>
       </c>
     </row>
   </sheetData>
